--- a/後期_電気電子/演算増幅器とアクティブフィルタ/非反転増幅回路.xlsx
+++ b/後期_電気電子/演算増幅器とアクティブフィルタ/非反転増幅回路.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terfno/Documents/git/report/__実験実習_後期/電気電子/演算増幅器とアクティブフィルタ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terfno/Documents/git/2018_report/後期_電気電子/演算増幅器とアクティブフィルタ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F72DDAE-328A-544F-978F-282031CED6C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E8BE3E-ED4F-FC43-AFBA-7D45D1BD7724}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8FC4EDD0-DF8A-B249-8BF1-5274B883EFE6}"/>
   </bookViews>
@@ -16,9 +16,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$2:$B$12</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$12</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$12</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$B$2:$B$12</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -157,7 +156,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en" altLang="ja-JP"/>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>non-inverting amplifier</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" altLang="en-US"/>
@@ -196,14 +195,14 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -212,9 +211,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$12</c:f>
               <c:numCache>
@@ -255,11 +308,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-51AC-4046-990A-E4BBCA0512EA}"/>
+              <c16:uniqueId val="{00000000-6282-9B40-AAC0-15B7FB056314}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -271,17 +324,30 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1613992672"/>
-        <c:axId val="1613994352"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1613992672"/>
+        <c:axId val="596670496"/>
+        <c:axId val="596761920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="596670496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -347,8 +413,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -375,15 +441,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1613994352"/>
+        <c:crossAx val="596761920"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1613994352"/>
+        <c:axId val="596761920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -424,7 +487,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>output voltage [v]</a:t>
+                  <a:t>output</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  <a:t> voltage [v]</a:t>
                 </a:r>
                 <a:endParaRPr lang="ja-JP" altLang="en-US"/>
               </a:p>
@@ -465,8 +532,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -490,9 +563,9 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1613992672"/>
+        <c:crossAx val="596670496"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -504,6 +577,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -580,7 +660,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -607,8 +687,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -688,11 +768,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -703,11 +778,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -719,7 +789,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -739,9 +809,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -754,10 +821,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -797,22 +864,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -917,8 +985,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1050,19 +1118,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1076,6 +1145,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1100,22 +1180,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>292100</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
+        <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1616F8C9-12AC-134F-9AFE-7F31C5DDECA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0FB3FC4-A423-7241-8679-70A22DF19FBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1436,7 +1516,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:D12"/>
+      <selection activeCell="A2" sqref="A2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
